--- a/resources/Inventory.xlsx
+++ b/resources/Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Projects/Microservices/tedu-aspnetcore-microservices/tedu-aspnetcore-microservices/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Resume\pet-aspnetcore-microservices\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C8DB4101-D92D-CC44-BFBA-91A33656D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74F31B7-6EEC-4006-9204-FF600D6B2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63900" yWindow="-4260" windowWidth="38240" windowHeight="21480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -145,6 +149,24 @@
   </si>
   <si>
     <t>SELECT ItemNo, Sum(Quantity) as Quantity FROM Inventory GROUP BY ItemNo</t>
+  </si>
+  <si>
+    <t>Anh Ha</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>641819xxxx</t>
+  </si>
+  <si>
+    <t>tuanha17897@gmail.com</t>
+  </si>
+  <si>
+    <t>fpt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -156,10 +178,17 @@
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00;[Red][$£-809]#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,117 +383,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyProtection="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="11" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="11" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="14" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="12" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -971,10 +1006,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="PersonalItems" displayName="PersonalItems" ref="B12:E21" totalsRowCount="1">
   <autoFilter ref="B12:E20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item No" totalsRowLabel="Total" totalsRowDxfId="5" dataCellStyle="Item Description"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Document No" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Document Type" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantity" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item No" totalsRowLabel="Total" totalsRowDxfId="17" dataCellStyle="Item Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Document No" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Document Type" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Quantity" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Personal inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -989,10 +1024,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{85EE672A-8B6B-D945-8654-7D90988FBE99}" name="PersonalItems4" displayName="PersonalItems4" ref="B12:E18" totalsRowCount="1">
   <autoFilter ref="B12:E17" xr:uid="{85EE672A-8B6B-D945-8654-7D90988FBE99}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2114A3E2-8E00-194F-B1B1-066BD8A11063}" name="Item No" totalsRowLabel="Total" totalsRowDxfId="17" dataCellStyle="Item Description"/>
-    <tableColumn id="2" xr3:uid="{28F151B9-398D-B847-8246-211C9E35F244}" name="Document No" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{A0CEF64B-6901-B24F-89E9-4DB654E0A15A}" name="Document Type" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C0818682-4EAC-1345-A2ED-0025B559FDEE}" name="Quantity" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{2114A3E2-8E00-194F-B1B1-066BD8A11063}" name="Item No" totalsRowLabel="Total" totalsRowDxfId="11" dataCellStyle="Item Description"/>
+    <tableColumn id="2" xr3:uid="{28F151B9-398D-B847-8246-211C9E35F244}" name="Document No" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A0CEF64B-6901-B24F-89E9-4DB654E0A15A}" name="Document Type" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C0818682-4EAC-1345-A2ED-0025B559FDEE}" name="Quantity" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Personal inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1007,10 +1042,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02FF2381-E98D-1A45-B959-2A39843E0F9F}" name="PersonalItems45" displayName="PersonalItems45" ref="B12:E16" totalsRowCount="1">
   <autoFilter ref="B12:E15" xr:uid="{02FF2381-E98D-1A45-B959-2A39843E0F9F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D02A5C9-7B7C-3546-9722-A5FD3C77AD0E}" name="Item No" totalsRowLabel="Total" totalsRowDxfId="11" dataCellStyle="Item Description"/>
-    <tableColumn id="2" xr3:uid="{B27F5994-E9FD-D541-9308-1E141723ADE8}" name="Document No" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{58B04A58-BA33-7040-A4FC-658D43C29FA5}" name="Document Type" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D160855E-99AF-514A-BE02-59D5246E8EC0}" name="Quantity" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{9D02A5C9-7B7C-3546-9722-A5FD3C77AD0E}" name="Item No" totalsRowLabel="Total" totalsRowDxfId="5" dataCellStyle="Item Description"/>
+    <tableColumn id="2" xr3:uid="{B27F5994-E9FD-D541-9308-1E141723ADE8}" name="Document No" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{58B04A58-BA33-7040-A4FC-658D43C29FA5}" name="Document Type" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D160855E-99AF-514A-BE02-59D5246E8EC0}" name="Quantity" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Personal inventory" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -1230,11 +1265,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
@@ -1242,10 +1277,10 @@
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>13</v>
@@ -1254,7 +1289,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1265,7 +1300,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -1278,20 +1313,20 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
+      <c r="B4" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>17</v>
+      <c r="D4" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1304,10 +1339,10 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>20</v>
+      <c r="B6" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>19</v>
@@ -1317,7 +1352,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>6</v>
@@ -1330,10 +1365,10 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="16" t="s">
-        <v>21</v>
+      <c r="B8" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="17" t="s">
@@ -1341,7 +1376,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1351,23 +1386,23 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1381,7 +1416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>1</v>
       </c>
@@ -1395,7 +1430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>1</v>
       </c>
@@ -1409,7 +1444,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>1</v>
       </c>
@@ -1423,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>1</v>
       </c>
@@ -1437,7 +1472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <v>1</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -1465,7 +1500,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <v>1</v>
       </c>
@@ -1479,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8">
         <v>1</v>
       </c>
@@ -1493,7 +1528,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1504,14 +1539,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
+    <row r="22" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -1542,7 +1577,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
@@ -1550,10 +1585,10 @@
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>32</v>
@@ -1562,7 +1597,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1573,7 +1608,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -1586,7 +1621,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
@@ -1599,7 +1634,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1612,7 +1647,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>20</v>
@@ -1625,7 +1660,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>6</v>
@@ -1638,7 +1673,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="16" t="s">
         <v>21</v>
@@ -1649,7 +1684,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1659,7 +1694,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="18" t="s">
         <v>23</v>
@@ -1669,13 +1704,13 @@
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>1</v>
       </c>
@@ -1703,7 +1738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>1</v>
       </c>
@@ -1717,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>1</v>
       </c>
@@ -1731,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <v>1</v>
       </c>
@@ -1745,7 +1780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <v>1</v>
       </c>
@@ -1759,7 +1794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1770,14 +1805,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
+    <row r="19" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1802,7 +1837,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
@@ -1810,10 +1845,10 @@
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>31</v>
@@ -1822,7 +1857,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1833,7 +1868,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -1846,7 +1881,7 @@
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
@@ -1859,7 +1894,7 @@
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -1872,7 +1907,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>20</v>
@@ -1885,7 +1920,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
         <v>6</v>
@@ -1898,7 +1933,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="16" t="s">
         <v>21</v>
@@ -1909,7 +1944,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
@@ -1919,7 +1954,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="18" t="s">
         <v>23</v>
@@ -1929,13 +1964,13 @@
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <v>1</v>
       </c>
@@ -1963,7 +1998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <v>1</v>
       </c>
@@ -1977,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
         <v>1</v>
       </c>
@@ -1991,7 +2026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2002,14 +2037,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
+    <row r="17" spans="2:5" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
